--- a/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
@@ -21,20 +21,20 @@
     <sheet name="Juarez EPC - TIP" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Juarez FCDM" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Juarez MEJ II" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Lavergne Tennessee" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Lincoln Missouri" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Manila Philippines" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Mcallen Texas" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Mississauga Canada" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Monterrey Rbm Mexico" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Piedras Negras Fasco Mexico" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Piedras Negras Jakel Mexico" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Reynosa Mexico" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Reynosa Mexico - Ftw" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Rowville Victoria" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Tipp City Ohio" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Rosemont Illinois" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Lincoln Missouri" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Manila Philippines" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Mcallen Texas" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Mississauga Canada" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Monterrey Rbm Mexico" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Piedras Negras Fasco Mexico" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Piedras Negras Jakel Mexico" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Reynosa Mexico" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Reynosa Mexico - Ftw" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Rowville Victoria" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Tipp City Ohio" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Rosemont Illinois" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Lavergne Tennessee" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="Reynosa II" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="Sao Paulo Brazil" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -182,9 +182,6 @@
     <t xml:space="preserve">Juarez MEJ II</t>
   </si>
   <si>
-    <t xml:space="preserve">Lavergne Tennessee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lincoln Missouri</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mcallen Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
   </si>
   <si>
     <t xml:space="preserve">Mississauga Canada</t>
@@ -222,6 +216,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rosemont Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavergne Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
   </si>
   <si>
     <t xml:space="preserve">Reynosa II</t>
@@ -1102,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1173,7 +1173,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1244,7 +1244,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1796,7 +1796,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1867,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1938,7 +1938,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2421,7 +2421,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2492,7 +2492,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2563,7 +2563,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2997,7 +2997,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="12" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -3068,7 +3068,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -3139,7 +3139,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -4095,7 +4095,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4166,7 +4166,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4237,7 +4237,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="15" t="n">
-        <v>0.0323</v>
+        <v>0.0333</v>
       </c>
       <c r="T2" s="15" t="n">
         <v>0</v>
@@ -4444,10 +4444,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="15" t="n">
-        <v>0.0323</v>
+        <v>0.0333</v>
       </c>
       <c r="W2" s="15" t="n">
-        <v>0.0319</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="3">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="15" t="n">
-        <v>0.02907</v>
+        <v>0.02997</v>
       </c>
       <c r="T3" s="15" t="n">
         <v>0</v>
@@ -4515,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="15" t="n">
-        <v>0.02907</v>
+        <v>0.02997</v>
       </c>
       <c r="W3" s="15" t="n">
-        <v>0.02871</v>
+        <v>0.02925</v>
       </c>
     </row>
     <row r="4">
@@ -4716,7 +4716,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4787,7 +4787,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4858,7 +4858,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5348,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="Q2" s="17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R2" s="17" t="n">
-        <v>0</v>
+        <v>0.2128</v>
       </c>
       <c r="S2" s="17" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="17" t="n">
-        <v>0</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="3">
@@ -5419,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="17" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="R3" s="17" t="n">
-        <v>0</v>
+        <v>0.19152</v>
       </c>
       <c r="S3" s="17" t="n">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="17" t="n">
-        <v>0</v>
+        <v>0.20457</v>
       </c>
     </row>
     <row r="4">
@@ -5646,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="Q2" s="18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="18" t="n">
-        <v>0.2128</v>
+        <v>0</v>
       </c>
       <c r="S2" s="18" t="n">
         <v>0</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="18" t="n">
-        <v>0.2273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5717,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="18" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="R3" s="18" t="n">
-        <v>0.19152</v>
+        <v>0</v>
       </c>
       <c r="S3" s="18" t="n">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="18" t="n">
-        <v>0.20457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5807,6 +5807,412 @@
       </c>
       <c r="W4" s="18" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="18" t="n">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="18" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="N7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="T7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="U7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="V7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="W7" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="N8" s="18" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="O8" s="18" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="P8" s="18" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="Q8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18" t="n">
+        <v>0.0336</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="18" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18" t="n">
+        <v>0.01008</v>
+      </c>
+      <c r="N9" s="18" t="n">
+        <v>0.01008</v>
+      </c>
+      <c r="O9" s="18" t="n">
+        <v>0.01026</v>
+      </c>
+      <c r="P9" s="18" t="n">
+        <v>0.01035</v>
+      </c>
+      <c r="Q9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>0.02025</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18" t="n">
+        <v>0.03024</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="J10" s="18" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="K10" s="18" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="L10" s="18" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M10" s="18" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N10" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="18" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P10" s="18" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q10" s="18" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="18" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T10" s="18" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U10" s="18" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V10" s="18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6107,412 +6513,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="19" t="n">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="N7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="P7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Q7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="R7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="S7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="T7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="U7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="V7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="W7" s="19" t="n">
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="19" t="n">
-        <v>0.0112</v>
-      </c>
-      <c r="N8" s="19" t="n">
-        <v>0.0112</v>
-      </c>
-      <c r="O8" s="19" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="P8" s="19" t="n">
-        <v>0.0115</v>
-      </c>
-      <c r="Q8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="19" t="n">
-        <v>0.0225</v>
-      </c>
-      <c r="S8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="19" t="n">
-        <v>0.0336</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="19" t="n">
-        <v>0.01008</v>
-      </c>
-      <c r="N9" s="19" t="n">
-        <v>0.01008</v>
-      </c>
-      <c r="O9" s="19" t="n">
-        <v>0.01026</v>
-      </c>
-      <c r="P9" s="19" t="n">
-        <v>0.01035</v>
-      </c>
-      <c r="Q9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="19" t="n">
-        <v>0.02025</v>
-      </c>
-      <c r="S9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="19" t="n">
-        <v>0.03024</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="J10" s="19" t="n">
-        <v>0.0186</v>
-      </c>
-      <c r="K10" s="19" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="L10" s="19" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M10" s="19" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N10" s="19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="19" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P10" s="19" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q10" s="19" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R10" s="19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S10" s="19" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T10" s="19" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U10" s="19" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V10" s="19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W10" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -6825,7 +6825,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6896,7 +6896,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6967,7 +6967,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -7322,71 +7322,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -7510,22 +7445,22 @@
         <v>0</v>
       </c>
       <c r="M2" s="21" t="n">
-        <v>0</v>
+        <v>0.0377</v>
       </c>
       <c r="N2" s="21" t="n">
-        <v>0</v>
+        <v>0.0387</v>
       </c>
       <c r="O2" s="21" t="n">
-        <v>0</v>
+        <v>0.0179</v>
       </c>
       <c r="P2" s="21" t="n">
-        <v>0</v>
+        <v>0.0182</v>
       </c>
       <c r="Q2" s="21" t="n">
-        <v>0</v>
+        <v>0.0192</v>
       </c>
       <c r="R2" s="21" t="n">
-        <v>0</v>
+        <v>0.0552</v>
       </c>
       <c r="S2" s="21" t="n">
         <v>0</v>
@@ -7534,13 +7469,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="21" t="n">
-        <v>0</v>
+        <v>0.0192</v>
       </c>
       <c r="V2" s="21" t="n">
-        <v>0</v>
+        <v>0.0189</v>
       </c>
       <c r="W2" s="21" t="n">
-        <v>0</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="3">
@@ -7581,22 +7516,22 @@
         <v>0</v>
       </c>
       <c r="M3" s="21" t="n">
-        <v>0</v>
+        <v>0.03393</v>
       </c>
       <c r="N3" s="21" t="n">
-        <v>0</v>
+        <v>0.03483</v>
       </c>
       <c r="O3" s="21" t="n">
-        <v>0</v>
+        <v>0.01611</v>
       </c>
       <c r="P3" s="21" t="n">
-        <v>0</v>
+        <v>0.01638</v>
       </c>
       <c r="Q3" s="21" t="n">
-        <v>0</v>
+        <v>0.01728</v>
       </c>
       <c r="R3" s="21" t="n">
-        <v>0</v>
+        <v>0.04968</v>
       </c>
       <c r="S3" s="21" t="n">
         <v>0</v>
@@ -7605,13 +7540,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="21" t="n">
-        <v>0</v>
+        <v>0.01728</v>
       </c>
       <c r="V3" s="21" t="n">
-        <v>0</v>
+        <v>0.01701</v>
       </c>
       <c r="W3" s="21" t="n">
-        <v>0</v>
+        <v>0.10386</v>
       </c>
     </row>
     <row r="4">
@@ -7637,51 +7572,469 @@
         <v>0</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="I4" s="21" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="21" t="n">
-        <v>0</v>
+        <v>0.0163</v>
       </c>
       <c r="K4" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="21" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="O5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="21" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="S5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W5" s="21" t="n">
+        <v>0.444444444444444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="21" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="M8" s="21" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="N8" s="21" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="O8" s="21" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="P8" s="21" t="n">
+        <v>0.0443</v>
+      </c>
+      <c r="Q8" s="21" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="R8" s="21" t="n">
+        <v>0.0983</v>
+      </c>
+      <c r="S8" s="21" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="T8" s="21" t="n">
+        <v>0.0229</v>
+      </c>
+      <c r="U8" s="21" t="n">
+        <v>0.0178</v>
+      </c>
+      <c r="V8" s="21" t="n">
+        <v>0.0611</v>
+      </c>
+      <c r="W8" s="21" t="n">
+        <v>0.1962</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <v>0.00081</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>0.00153</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="21" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="M9" s="21" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="N9" s="21" t="n">
+        <v>0.00423</v>
+      </c>
+      <c r="O9" s="21" t="n">
+        <v>0.02574</v>
+      </c>
+      <c r="P9" s="21" t="n">
+        <v>0.03987</v>
+      </c>
+      <c r="Q9" s="21" t="n">
+        <v>0.02304</v>
+      </c>
+      <c r="R9" s="21" t="n">
+        <v>0.08847</v>
+      </c>
+      <c r="S9" s="21" t="n">
+        <v>0.01827</v>
+      </c>
+      <c r="T9" s="21" t="n">
+        <v>0.02061</v>
+      </c>
+      <c r="U9" s="21" t="n">
+        <v>0.01602</v>
+      </c>
+      <c r="V9" s="21" t="n">
+        <v>0.05499</v>
+      </c>
+      <c r="W9" s="21" t="n">
+        <v>0.17658</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="21" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>0.0621</v>
+      </c>
+      <c r="K10" s="21" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="L10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7814,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>0</v>
+        <v>0.0476</v>
       </c>
       <c r="P2" s="22" t="n">
         <v>0</v>
@@ -7823,22 +8176,22 @@
         <v>0</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>0</v>
+        <v>0.0461</v>
       </c>
       <c r="S2" s="22" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>0</v>
+        <v>0.0417</v>
       </c>
       <c r="U2" s="22" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>0</v>
+        <v>0.0422</v>
       </c>
       <c r="W2" s="22" t="n">
-        <v>0</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="3">
@@ -7885,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>0</v>
+        <v>0.04284</v>
       </c>
       <c r="P3" s="22" t="n">
         <v>0</v>
@@ -7894,22 +8247,22 @@
         <v>0</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>0</v>
+        <v>0.04149</v>
       </c>
       <c r="S3" s="22" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>0</v>
+        <v>0.03753</v>
       </c>
       <c r="U3" s="22" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>0</v>
+        <v>0.03798</v>
       </c>
       <c r="W3" s="22" t="n">
-        <v>0</v>
+        <v>0.08073</v>
       </c>
     </row>
     <row r="4">
@@ -7932,7 +8285,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="22" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="H4" s="22" t="n">
         <v>0</v>
@@ -7941,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="22" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="K4" s="22" t="n">
         <v>0</v>
@@ -7981,6 +8334,398 @@
       </c>
       <c r="W4" s="22" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="22" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="W5" s="22" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="22" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O8" s="22" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="P8" s="22" t="n">
+        <v>0.0079</v>
+      </c>
+      <c r="Q8" s="22" t="n">
+        <v>0.0369</v>
+      </c>
+      <c r="R8" s="22" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="S8" s="22" t="n">
+        <v>0.0258</v>
+      </c>
+      <c r="T8" s="22" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="U8" s="22" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="V8" s="22" t="n">
+        <v>0.0905</v>
+      </c>
+      <c r="W8" s="22" t="n">
+        <v>0.1581</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="O9" s="22" t="n">
+        <v>0.01449</v>
+      </c>
+      <c r="P9" s="22" t="n">
+        <v>0.00711</v>
+      </c>
+      <c r="Q9" s="22" t="n">
+        <v>0.03321</v>
+      </c>
+      <c r="R9" s="22" t="n">
+        <v>0.05436</v>
+      </c>
+      <c r="S9" s="22" t="n">
+        <v>0.02322</v>
+      </c>
+      <c r="T9" s="22" t="n">
+        <v>0.02763</v>
+      </c>
+      <c r="U9" s="22" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="V9" s="22" t="n">
+        <v>0.08145</v>
+      </c>
+      <c r="W9" s="22" t="n">
+        <v>0.14229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="22" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="22" t="n">
+        <v>0.1103</v>
+      </c>
+      <c r="H10" s="22" t="n">
+        <v>0.1983</v>
+      </c>
+      <c r="I10" s="22" t="n">
+        <v>0.1111</v>
+      </c>
+      <c r="J10" s="22" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K10" s="22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="22" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M10" s="22" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="22" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P10" s="22" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q10" s="22" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R10" s="22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="22" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T10" s="22" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U10" s="22" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V10" s="22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8082,7 +8827,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8106,22 +8851,22 @@
         <v>0</v>
       </c>
       <c r="M2" s="23" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="N2" s="23" t="n">
-        <v>0.0353</v>
+        <v>0</v>
       </c>
       <c r="O2" s="23" t="n">
-        <v>0.0164</v>
+        <v>0</v>
       </c>
       <c r="P2" s="23" t="n">
-        <v>0.0164</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="23" t="n">
-        <v>0.0167</v>
+        <v>0</v>
       </c>
       <c r="R2" s="23" t="n">
-        <v>0.0494</v>
+        <v>0</v>
       </c>
       <c r="S2" s="23" t="n">
         <v>0</v>
@@ -8130,13 +8875,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="23" t="n">
-        <v>0.0167</v>
+        <v>0</v>
       </c>
       <c r="V2" s="23" t="n">
-        <v>0.0164</v>
+        <v>0</v>
       </c>
       <c r="W2" s="23" t="n">
-        <v>0.1033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8153,7 +8898,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8177,22 +8922,22 @@
         <v>0</v>
       </c>
       <c r="M3" s="23" t="n">
-        <v>0.03105</v>
+        <v>0</v>
       </c>
       <c r="N3" s="23" t="n">
-        <v>0.03177</v>
+        <v>0</v>
       </c>
       <c r="O3" s="23" t="n">
-        <v>0.01476</v>
+        <v>0</v>
       </c>
       <c r="P3" s="23" t="n">
-        <v>0.01476</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="23" t="n">
-        <v>0.01503</v>
+        <v>0</v>
       </c>
       <c r="R3" s="23" t="n">
-        <v>0.04446</v>
+        <v>0</v>
       </c>
       <c r="S3" s="23" t="n">
         <v>0</v>
@@ -8201,13 +8946,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="23" t="n">
-        <v>0.01503</v>
+        <v>0</v>
       </c>
       <c r="V3" s="23" t="n">
-        <v>0.01476</v>
+        <v>0</v>
       </c>
       <c r="W3" s="23" t="n">
-        <v>0.09297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8224,7 +8969,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8233,52 +8978,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>0.0167</v>
+        <v>0</v>
       </c>
       <c r="I4" s="23" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="23" t="n">
-        <v>0.0163</v>
+        <v>0</v>
       </c>
       <c r="K4" s="23" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8292,58 +9037,56 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="H5" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" s="23" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="M5" s="23" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="23" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="O5" s="23" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="23" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R5" s="23" t="n">
-        <v>0.5714</v>
-      </c>
-      <c r="S5" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="23" t="n">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
       <c r="W5" s="23" t="n">
-        <v>0.444444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8357,345 +9100,55 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R6" s="23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="23" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="23" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H8" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="23" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="J8" s="23" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K8" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="23" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="M8" s="23" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="N8" s="23" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="O8" s="23" t="n">
-        <v>0.0286</v>
-      </c>
-      <c r="P8" s="23" t="n">
-        <v>0.0443</v>
-      </c>
-      <c r="Q8" s="23" t="n">
-        <v>0.0256</v>
-      </c>
-      <c r="R8" s="23" t="n">
-        <v>0.0983</v>
-      </c>
-      <c r="S8" s="23" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="T8" s="23" t="n">
-        <v>0.0229</v>
-      </c>
-      <c r="U8" s="23" t="n">
-        <v>0.0178</v>
-      </c>
-      <c r="V8" s="23" t="n">
-        <v>0.0611</v>
-      </c>
-      <c r="W8" s="23" t="n">
-        <v>0.1962</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="23" t="n">
-        <v>0.00081</v>
-      </c>
-      <c r="H9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="n">
-        <v>0.00063</v>
-      </c>
-      <c r="J9" s="23" t="n">
-        <v>0.00153</v>
-      </c>
-      <c r="K9" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="23" t="n">
-        <v>0.00054</v>
-      </c>
-      <c r="M9" s="23" t="n">
-        <v>0.00324</v>
-      </c>
-      <c r="N9" s="23" t="n">
-        <v>0.00423</v>
-      </c>
-      <c r="O9" s="23" t="n">
-        <v>0.02574</v>
-      </c>
-      <c r="P9" s="23" t="n">
-        <v>0.03987</v>
-      </c>
-      <c r="Q9" s="23" t="n">
-        <v>0.02304</v>
-      </c>
-      <c r="R9" s="23" t="n">
-        <v>0.08847</v>
-      </c>
-      <c r="S9" s="23" t="n">
-        <v>0.01827</v>
-      </c>
-      <c r="T9" s="23" t="n">
-        <v>0.02061</v>
-      </c>
-      <c r="U9" s="23" t="n">
-        <v>0.01602</v>
-      </c>
-      <c r="V9" s="23" t="n">
-        <v>0.05499</v>
-      </c>
-      <c r="W9" s="23" t="n">
-        <v>0.17658</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="23" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="H10" s="23" t="n">
-        <v>0.0198</v>
-      </c>
-      <c r="I10" s="23" t="n">
-        <v>0.0222</v>
-      </c>
-      <c r="J10" s="23" t="n">
-        <v>0.0621</v>
-      </c>
-      <c r="K10" s="23" t="n">
-        <v>0.0278</v>
-      </c>
-      <c r="L10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8828,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="24" t="n">
-        <v>0.0476</v>
+        <v>0</v>
       </c>
       <c r="P2" s="24" t="n">
         <v>0</v>
@@ -8837,22 +9290,22 @@
         <v>0</v>
       </c>
       <c r="R2" s="24" t="n">
-        <v>0.0461</v>
+        <v>0</v>
       </c>
       <c r="S2" s="24" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="24" t="n">
-        <v>0.0417</v>
+        <v>0</v>
       </c>
       <c r="U2" s="24" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="24" t="n">
-        <v>0.0422</v>
+        <v>0</v>
       </c>
       <c r="W2" s="24" t="n">
-        <v>0.0897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8899,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="24" t="n">
-        <v>0.04284</v>
+        <v>0</v>
       </c>
       <c r="P3" s="24" t="n">
         <v>0</v>
@@ -8908,22 +9361,22 @@
         <v>0</v>
       </c>
       <c r="R3" s="24" t="n">
-        <v>0.04149</v>
+        <v>0</v>
       </c>
       <c r="S3" s="24" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="24" t="n">
-        <v>0.03753</v>
+        <v>0</v>
       </c>
       <c r="U3" s="24" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="24" t="n">
-        <v>0.03798</v>
+        <v>0</v>
       </c>
       <c r="W3" s="24" t="n">
-        <v>0.08073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8946,7 +9399,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="24" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="H4" s="24" t="n">
         <v>0</v>
@@ -8955,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="K4" s="24" t="n">
         <v>0</v>
@@ -8995,398 +9448,6 @@
       </c>
       <c r="W4" s="24" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="24" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="W5" s="24" t="n">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="24" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="24" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="N8" s="24" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O8" s="24" t="n">
-        <v>0.0161</v>
-      </c>
-      <c r="P8" s="24" t="n">
-        <v>0.0079</v>
-      </c>
-      <c r="Q8" s="24" t="n">
-        <v>0.0369</v>
-      </c>
-      <c r="R8" s="24" t="n">
-        <v>0.0604</v>
-      </c>
-      <c r="S8" s="24" t="n">
-        <v>0.0258</v>
-      </c>
-      <c r="T8" s="24" t="n">
-        <v>0.0307</v>
-      </c>
-      <c r="U8" s="24" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="V8" s="24" t="n">
-        <v>0.0905</v>
-      </c>
-      <c r="W8" s="24" t="n">
-        <v>0.1581</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="24" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="N9" s="24" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="O9" s="24" t="n">
-        <v>0.01449</v>
-      </c>
-      <c r="P9" s="24" t="n">
-        <v>0.00711</v>
-      </c>
-      <c r="Q9" s="24" t="n">
-        <v>0.03321</v>
-      </c>
-      <c r="R9" s="24" t="n">
-        <v>0.05436</v>
-      </c>
-      <c r="S9" s="24" t="n">
-        <v>0.02322</v>
-      </c>
-      <c r="T9" s="24" t="n">
-        <v>0.02763</v>
-      </c>
-      <c r="U9" s="24" t="n">
-        <v>0.0306</v>
-      </c>
-      <c r="V9" s="24" t="n">
-        <v>0.08145</v>
-      </c>
-      <c r="W9" s="24" t="n">
-        <v>0.14229</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="24" t="n">
-        <v>0.1103</v>
-      </c>
-      <c r="H10" s="24" t="n">
-        <v>0.1983</v>
-      </c>
-      <c r="I10" s="24" t="n">
-        <v>0.1111</v>
-      </c>
-      <c r="J10" s="24" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="K10" s="24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="24" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M10" s="24" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N10" s="24" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="24" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P10" s="24" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q10" s="24" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R10" s="24" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S10" s="24" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T10" s="24" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U10" s="24" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V10" s="24" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W10" s="24" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9698,54 +9759,34 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -9759,54 +9800,62 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="25" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W6" s="25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -9941,13 +9990,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="26" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="Q2" s="26" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="26" t="n">
-        <v>0</v>
+        <v>0.0246</v>
       </c>
       <c r="S2" s="26" t="n">
         <v>0</v>
@@ -9962,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="26" t="n">
-        <v>0</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="3">
@@ -10012,13 +10061,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="26" t="n">
-        <v>0</v>
+        <v>0.0225</v>
       </c>
       <c r="Q3" s="26" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="26" t="n">
-        <v>0</v>
+        <v>0.02214</v>
       </c>
       <c r="S3" s="26" t="n">
         <v>0</v>
@@ -10033,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="26" t="n">
-        <v>0</v>
+        <v>0.02241</v>
       </c>
     </row>
     <row r="4">
@@ -10059,16 +10108,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="26" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="I4" s="26" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="26" t="n">
-        <v>0</v>
+        <v>0.0236</v>
       </c>
       <c r="K4" s="26" t="n">
-        <v>0</v>
+        <v>0.0244</v>
       </c>
       <c r="L4" s="26" t="n">
         <v>0</v>
@@ -10105,6 +10154,122 @@
       </c>
       <c r="W4" s="26" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="26" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -10211,48 +10376,20 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
       <c r="U2" s="27" t="n">
         <v>0</v>
       </c>
@@ -10282,48 +10419,20 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
       <c r="U3" s="27" t="n">
         <v>0</v>
       </c>
@@ -10424,12 +10533,8 @@
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
-      <c r="I5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
@@ -10440,10 +10545,14 @@
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
+      <c r="U5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="27" t="n">
+        <v>0</v>
+      </c>
       <c r="W5" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10617,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="28" t="n">
         <v>0</v>
@@ -10647,13 +10756,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="28" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="28" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="28" t="n">
-        <v>0.0246</v>
+        <v>0</v>
       </c>
       <c r="S2" s="28" t="n">
         <v>0</v>
@@ -10668,265 +10777,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="28" t="n">
-        <v>0.0249</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="28" t="n">
-        <v>0.0225</v>
-      </c>
-      <c r="Q3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="28" t="n">
-        <v>0.02214</v>
-      </c>
-      <c r="S3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="28" t="n">
-        <v>0.02241</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="I4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="28" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="K4" s="28" t="n">
-        <v>0.0244</v>
-      </c>
-      <c r="L4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11031,22 +10882,50 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="U2" s="29" t="n">
         <v>0</v>
       </c>
@@ -11068,28 +10947,50 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" s="29" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="H3" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="J3" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
+      <c r="L3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="U3" s="29" t="n">
         <v>0</v>
       </c>
@@ -11098,187 +10999,6 @@
       </c>
       <c r="W3" s="29" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="29" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -11380,7 +11100,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11451,7 +11171,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11522,7 +11242,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11703,7 +11423,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -11774,7 +11494,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -11845,7 +11565,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -12000,7 +11720,9 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="30" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -12051,7 +11773,9 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="30" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -12187,7 +11911,9 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="31" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -12248,7 +11974,9 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="31" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -13389,7 +13117,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13460,7 +13188,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13531,7 +13259,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -14082,7 +13810,9 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
@@ -14129,7 +13859,9 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
@@ -14298,10 +14030,10 @@
         <v>0</v>
       </c>
       <c r="Q2" s="8" t="n">
-        <v>0.0625</v>
+        <v>0.0556</v>
       </c>
       <c r="R2" s="8" t="n">
-        <v>0.0599</v>
+        <v>0.0535</v>
       </c>
       <c r="S2" s="8" t="n">
         <v>0</v>
@@ -14316,7 +14048,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="8" t="n">
-        <v>0.0592</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="3">
@@ -14369,10 +14101,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="8" t="n">
-        <v>0.05625</v>
+        <v>0.05004</v>
       </c>
       <c r="R3" s="8" t="n">
-        <v>0.05391</v>
+        <v>0.04815</v>
       </c>
       <c r="S3" s="8" t="n">
         <v>0</v>
@@ -14387,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="8" t="n">
-        <v>0.05328</v>
+        <v>0.04761</v>
       </c>
     </row>
     <row r="4">

--- a/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
@@ -1051,9 +1051,7 @@
       <c r="K7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1" t="n">
         <v>0</v>
       </c>
@@ -1102,7 +1100,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1173,7 +1171,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1244,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1265,40 +1263,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1561,7 @@
         <v>0.02</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="M4" s="10" t="n">
         <v>0</v>
@@ -1745,9 +1743,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="L7" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="10" t="n">
         <v>0</v>
       </c>
@@ -1796,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1867,7 +1863,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1938,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1953,13 +1949,13 @@
         <v>0.0105</v>
       </c>
       <c r="J10" s="10" t="n">
-        <v>0.038</v>
+        <v>0.0379</v>
       </c>
       <c r="K10" s="10" t="n">
         <v>0.0067</v>
       </c>
       <c r="L10" s="10" t="n">
-        <v>0</v>
+        <v>0.0082</v>
       </c>
       <c r="M10" s="10" t="n">
         <v>0</v>
@@ -2421,7 +2417,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2492,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2563,7 +2559,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2575,16 +2571,16 @@
         <v>0.0052</v>
       </c>
       <c r="I9" s="11" t="n">
-        <v>0.0071</v>
+        <v>0.007</v>
       </c>
       <c r="J9" s="11" t="n">
-        <v>0.0213</v>
+        <v>0.0212</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="L9" s="11" t="n">
-        <v>0</v>
+        <v>0.0094</v>
       </c>
       <c r="M9" s="11" t="n">
         <v>0</v>
@@ -2946,9 +2942,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="12"/>
       <c r="M5" s="12" t="n">
         <v>1</v>
       </c>
@@ -2997,7 +2991,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -3068,7 +3062,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -3139,7 +3133,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -4095,7 +4089,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4166,7 +4160,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4237,13 +4231,13 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="14" t="n">
-        <v>0.0155</v>
+        <v>0.0154</v>
       </c>
       <c r="H10" s="14" t="n">
         <v>0.0068</v>
@@ -4252,13 +4246,13 @@
         <v>0.0069</v>
       </c>
       <c r="J10" s="14" t="n">
-        <v>0.0292</v>
+        <v>0.0291</v>
       </c>
       <c r="K10" s="14" t="n">
-        <v>0.0105</v>
+        <v>0.0104</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0</v>
+        <v>0.0157</v>
       </c>
       <c r="M10" s="14" t="n">
         <v>0</v>
@@ -4556,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="M4" s="15" t="n">
         <v>0</v>
@@ -4716,7 +4710,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4787,7 +4781,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4858,7 +4852,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4870,16 +4864,16 @@
         <v>0.0217</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0228</v>
+        <v>0.0229</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.0769</v>
+        <v>0.0771</v>
       </c>
       <c r="K9" s="15" t="n">
         <v>0.0201</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0</v>
+        <v>0.0264</v>
       </c>
       <c r="M9" s="15" t="n">
         <v>0</v>
@@ -5773,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="M4" s="18" t="n">
         <v>0</v>
@@ -5965,9 +5959,7 @@
         <v>0.3333</v>
       </c>
       <c r="K7" s="18"/>
-      <c r="L7" s="18" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="L7" s="18"/>
       <c r="M7" s="18" t="n">
         <v>0.333333333333333</v>
       </c>
@@ -6016,7 +6008,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6087,7 +6079,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6158,7 +6150,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -6179,40 +6171,40 @@
         <v>0.0089</v>
       </c>
       <c r="L10" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6825,7 +6817,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6896,7 +6888,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6967,7 +6959,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6988,40 +6980,40 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0159</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7572,52 +7564,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>0.0167</v>
+        <v>0.0169</v>
       </c>
       <c r="I4" s="21" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="21" t="n">
-        <v>0.0163</v>
+        <v>0.0166</v>
       </c>
       <c r="K4" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7788,9 +7780,7 @@
       <c r="K7" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="21"/>
       <c r="M7" s="21" t="n">
         <v>0</v>
       </c>
@@ -7839,7 +7829,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7910,7 +7900,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7981,7 +7971,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -7990,19 +7980,19 @@
         <v>0.0201</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>0.0198</v>
+        <v>0.0197</v>
       </c>
       <c r="I10" s="21" t="n">
-        <v>0.0222</v>
+        <v>0.0221</v>
       </c>
       <c r="J10" s="21" t="n">
-        <v>0.0621</v>
+        <v>0.0619</v>
       </c>
       <c r="K10" s="21" t="n">
-        <v>0.0278</v>
+        <v>0.0277</v>
       </c>
       <c r="L10" s="21" t="n">
-        <v>0</v>
+        <v>0.0214</v>
       </c>
       <c r="M10" s="21" t="n">
         <v>0</v>
@@ -8285,7 +8275,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="22" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
       <c r="H4" s="22" t="n">
         <v>0</v>
@@ -8294,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="22" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
       <c r="K4" s="22" t="n">
         <v>0</v>
@@ -8478,9 +8468,7 @@
       <c r="K7" s="22" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="22" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="22"/>
       <c r="M7" s="22" t="n">
         <v>0.5</v>
       </c>
@@ -8529,7 +8517,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8600,7 +8588,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8671,28 +8659,28 @@
         <v>31</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>0.1103</v>
+        <v>0.1096</v>
       </c>
       <c r="H10" s="22" t="n">
-        <v>0.1983</v>
+        <v>0.1935</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>0.1111</v>
+        <v>0.1081</v>
       </c>
       <c r="J10" s="22" t="n">
-        <v>0.417</v>
+        <v>0.4094</v>
       </c>
       <c r="K10" s="22" t="n">
-        <v>0.1</v>
+        <v>0.0909</v>
       </c>
       <c r="L10" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0638</v>
       </c>
       <c r="M10" s="22" t="n">
         <v>0.0833333333333333</v>
@@ -9040,7 +9028,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9103,7 +9091,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10120,7 +10108,7 @@
         <v>0.0244</v>
       </c>
       <c r="L4" s="26" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="M4" s="26" t="n">
         <v>0</v>
@@ -10964,9 +10952,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="29"/>
-      <c r="L3" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" s="29"/>
       <c r="M3" s="29" t="n">
         <v>0</v>
       </c>
@@ -11263,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0.0833333333333333</v>
@@ -11423,7 +11409,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -11494,7 +11480,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -11565,7 +11551,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -11721,7 +11707,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11774,7 +11760,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11912,7 +11898,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11975,7 +11961,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13066,9 +13052,7 @@
       <c r="K7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6" t="n">
         <v>0</v>
       </c>
@@ -13117,7 +13101,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13188,7 +13172,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13259,7 +13243,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13760,9 +13744,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="7" t="n">
         <v>1</v>
       </c>
@@ -13811,7 +13793,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13860,7 +13842,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>

--- a/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
@@ -712,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.1754</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -783,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.1754</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -854,7 +854,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.1754</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -878,37 +878,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
+        <v>0.10525</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>0.10525</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0</v>
+        <v>0.10525</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="5">
@@ -1100,7 +1100,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0318</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1171,7 +1171,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0318</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1242,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0318</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1266,37 +1266,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0</v>
+        <v>0.00635833333333333</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0</v>
+        <v>0.019075</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0</v>
+        <v>0.00635833333333333</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0</v>
+        <v>0.00635833333333333</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0</v>
+        <v>0.00635833333333333</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>0.019075</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>0.00635833333333333</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0</v>
+        <v>0.00635833333333333</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0</v>
+        <v>0.00635833333333333</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0</v>
+        <v>0.019075</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0</v>
+        <v>0.0763</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1398,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0</v>
+        <v>0.0598</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1469,7 +1469,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0</v>
+        <v>0.0598</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1540,7 +1540,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0</v>
+        <v>0.0598</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1564,37 +1564,37 @@
         <v>0.0204</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0</v>
+        <v>0.0119583333333333</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0</v>
+        <v>0.035875</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0</v>
+        <v>0.0119583333333333</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0</v>
+        <v>0.0119583333333333</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0</v>
+        <v>0.0119583333333333</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0</v>
+        <v>0.035875</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0</v>
+        <v>0.0119583333333333</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0</v>
+        <v>0.0119583333333333</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0</v>
+        <v>0.0119583333333333</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0</v>
+        <v>0.035875</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="5">
@@ -1792,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.053</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1863,7 +1863,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.053</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1934,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.053</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1958,37 +1958,37 @@
         <v>0.0082</v>
       </c>
       <c r="M10" s="10" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="N10" s="10" t="n">
-        <v>0</v>
+        <v>0.0318</v>
       </c>
       <c r="O10" s="10" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="P10" s="10" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="Q10" s="10" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="R10" s="10" t="n">
-        <v>0</v>
+        <v>0.0318</v>
       </c>
       <c r="S10" s="10" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="T10" s="10" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="U10" s="10" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="V10" s="10" t="n">
-        <v>0</v>
+        <v>0.0318</v>
       </c>
       <c r="W10" s="10" t="n">
-        <v>0</v>
+        <v>0.1272</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +2090,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0</v>
+        <v>0.0403</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2161,7 +2161,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0</v>
+        <v>0.0403</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2232,7 +2232,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0</v>
+        <v>0.0403</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2256,37 +2256,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0</v>
+        <v>0.00805833333333333</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0</v>
+        <v>0.024175</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0</v>
+        <v>0.00805833333333333</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0</v>
+        <v>0.00805833333333333</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0</v>
+        <v>0.00805833333333333</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0</v>
+        <v>0.024175</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0</v>
+        <v>0.00805833333333333</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0</v>
+        <v>0.00805833333333333</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0</v>
+        <v>0.00805833333333333</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0</v>
+        <v>0.024175</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0</v>
+        <v>0.0967</v>
       </c>
     </row>
     <row r="5">
@@ -2417,7 +2417,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0502</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2488,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0502</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2559,7 +2559,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0502</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2583,37 +2583,37 @@
         <v>0.0094</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>0</v>
+        <v>0.0100416666666667</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>0</v>
+        <v>0.030125</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0</v>
+        <v>0.0100416666666667</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0</v>
+        <v>0.0100416666666667</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0</v>
+        <v>0.0100416666666667</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0</v>
+        <v>0.030125</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0</v>
+        <v>0.0100416666666667</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0</v>
+        <v>0.0100416666666667</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0</v>
+        <v>0.0100416666666667</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0</v>
+        <v>0.030125</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>0</v>
+        <v>0.1205</v>
       </c>
     </row>
   </sheetData>
@@ -2991,7 +2991,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -3062,7 +3062,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -3133,7 +3133,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -3697,7 +3697,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0</v>
+        <v>0.0347</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3768,7 +3768,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0</v>
+        <v>0.0347</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3839,7 +3839,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0</v>
+        <v>0.0347</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3863,37 +3863,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0</v>
+        <v>0.00694166666666667</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0</v>
+        <v>0.020825</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0</v>
+        <v>0.00694166666666667</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0</v>
+        <v>0.00694166666666667</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0</v>
+        <v>0.00694166666666667</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0</v>
+        <v>0.020825</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0</v>
+        <v>0.00694166666666667</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0</v>
+        <v>0.00694166666666667</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0</v>
+        <v>0.00694166666666667</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0</v>
+        <v>0.020825</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="5">
@@ -4089,7 +4089,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.0551</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4160,7 +4160,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.0551</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4231,7 +4231,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.0551</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4255,37 +4255,37 @@
         <v>0.0157</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0</v>
+        <v>0.0110166666666667</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0</v>
+        <v>0.03305</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0</v>
+        <v>0.0110166666666667</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0</v>
+        <v>0.0110166666666667</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0</v>
+        <v>0.0110166666666667</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0</v>
+        <v>0.03305</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0</v>
+        <v>0.0110166666666667</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0</v>
+        <v>0.0110166666666667</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0</v>
+        <v>0.0110166666666667</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0</v>
+        <v>0.03305</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0</v>
+        <v>0.1322</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +4387,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0</v>
+        <v>0.0325</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4458,7 +4458,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0</v>
+        <v>0.0325</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4529,7 +4529,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0</v>
+        <v>0.0325</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4553,37 +4553,37 @@
         <v>0.0333</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0</v>
+        <v>0.0195</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0</v>
+        <v>0.0195</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0</v>
+        <v>0.0195</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="5">
@@ -4710,7 +4710,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.0776</v>
+        <v>0.1236</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4781,7 +4781,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.0776</v>
+        <v>0.1236</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4852,7 +4852,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0776</v>
+        <v>0.1236</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4876,37 +4876,37 @@
         <v>0.0264</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0</v>
+        <v>0.0247166666666667</v>
       </c>
       <c r="N9" s="15" t="n">
-        <v>0</v>
+        <v>0.07415</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>0</v>
+        <v>0.0247166666666667</v>
       </c>
       <c r="P9" s="15" t="n">
-        <v>0</v>
+        <v>0.0247166666666667</v>
       </c>
       <c r="Q9" s="15" t="n">
-        <v>0</v>
+        <v>0.0247166666666667</v>
       </c>
       <c r="R9" s="15" t="n">
-        <v>0</v>
+        <v>0.07415</v>
       </c>
       <c r="S9" s="15" t="n">
-        <v>0</v>
+        <v>0.0247166666666667</v>
       </c>
       <c r="T9" s="15" t="n">
-        <v>0</v>
+        <v>0.0247166666666667</v>
       </c>
       <c r="U9" s="15" t="n">
-        <v>0</v>
+        <v>0.0247166666666667</v>
       </c>
       <c r="V9" s="15" t="n">
-        <v>0</v>
+        <v>0.07415</v>
       </c>
       <c r="W9" s="15" t="n">
-        <v>0</v>
+        <v>0.2966</v>
       </c>
     </row>
   </sheetData>
@@ -5604,7 +5604,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0</v>
+        <v>0.0568</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5675,7 +5675,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0</v>
+        <v>0.0568</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5746,7 +5746,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0</v>
+        <v>0.0568</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5770,37 +5770,37 @@
         <v>0.0588</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0</v>
+        <v>0.034075</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0</v>
+        <v>0.034075</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0</v>
+        <v>0.0113583333333333</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0</v>
+        <v>0.034075</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0</v>
+        <v>0.1363</v>
       </c>
     </row>
     <row r="5">
@@ -6008,7 +6008,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.0275</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6079,7 +6079,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.0275</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6150,7 +6150,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.0275</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -6174,37 +6174,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="P10" s="18" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="Q10" s="18" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="R10" s="18" t="n">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="S10" s="18" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="T10" s="18" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="U10" s="18" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="V10" s="18" t="n">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>0</v>
+        <v>0.066</v>
       </c>
     </row>
   </sheetData>
@@ -6604,7 +6604,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6675,7 +6675,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6746,7 +6746,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6770,37 +6770,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>0.04615</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>0.04615</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0</v>
+        <v>0.0153833333333333</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0</v>
+        <v>0.04615</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0</v>
+        <v>0.1846</v>
       </c>
     </row>
     <row r="5">
@@ -6817,7 +6817,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0776</v>
+        <v>0.0469</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6888,7 +6888,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.0776</v>
+        <v>0.0469</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6959,7 +6959,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0776</v>
+        <v>0.0469</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6983,37 +6983,37 @@
         <v>0.0159</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0</v>
+        <v>0.00938333333333333</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0</v>
+        <v>0.02815</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0</v>
+        <v>0.00938333333333333</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0</v>
+        <v>0.00938333333333333</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0</v>
+        <v>0.00938333333333333</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0</v>
+        <v>0.02815</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0</v>
+        <v>0.00938333333333333</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0</v>
+        <v>0.00938333333333333</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0</v>
+        <v>0.00938333333333333</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0</v>
+        <v>0.02815</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0</v>
+        <v>0.1126</v>
       </c>
     </row>
   </sheetData>
@@ -7413,7 +7413,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7484,7 +7484,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7555,7 +7555,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7579,37 +7579,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0</v>
+        <v>0.00328333333333333</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0</v>
+        <v>0.00985</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0</v>
+        <v>0.00328333333333333</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0</v>
+        <v>0.00328333333333333</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0</v>
+        <v>0.00328333333333333</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0</v>
+        <v>0.00985</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0</v>
+        <v>0.00328333333333333</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0</v>
+        <v>0.00328333333333333</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0</v>
+        <v>0.00328333333333333</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0</v>
+        <v>0.00985</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="5">
@@ -7829,7 +7829,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>0.0776</v>
+        <v>0.1111</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7900,7 +7900,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>0.0776</v>
+        <v>0.1111</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7971,7 +7971,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>0.0776</v>
+        <v>0.1111</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -7995,37 +7995,37 @@
         <v>0.0214</v>
       </c>
       <c r="M10" s="21" t="n">
-        <v>0</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="N10" s="21" t="n">
-        <v>0</v>
+        <v>0.06665</v>
       </c>
       <c r="O10" s="21" t="n">
-        <v>0</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="P10" s="21" t="n">
-        <v>0</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="Q10" s="21" t="n">
-        <v>0</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="R10" s="21" t="n">
-        <v>0</v>
+        <v>0.06665</v>
       </c>
       <c r="S10" s="21" t="n">
-        <v>0</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="T10" s="21" t="n">
-        <v>0</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="U10" s="21" t="n">
-        <v>0</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="V10" s="21" t="n">
-        <v>0</v>
+        <v>0.06665</v>
       </c>
       <c r="W10" s="21" t="n">
-        <v>0</v>
+        <v>0.2666</v>
       </c>
     </row>
   </sheetData>
@@ -8127,7 +8127,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0</v>
+        <v>0.1351</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8198,7 +8198,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0</v>
+        <v>0.1351</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8269,7 +8269,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0</v>
+        <v>0.1351</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8293,37 +8293,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="22" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="N4" s="22" t="n">
-        <v>0</v>
+        <v>0.08105</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0</v>
+        <v>0.08105</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0</v>
+        <v>0.0270166666666667</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0</v>
+        <v>0.08105</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>0</v>
+        <v>0.3242</v>
       </c>
     </row>
     <row r="5">
@@ -8517,7 +8517,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>0.0776</v>
+        <v>0.5861</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8588,7 +8588,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>0.0776</v>
+        <v>0.5861</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8659,7 +8659,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>0.0776</v>
+        <v>0.5861</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -8683,37 +8683,37 @@
         <v>0.0638</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.117216666666667</v>
       </c>
       <c r="N10" s="22" t="n">
-        <v>0.25</v>
+        <v>0.35165</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.117216666666667</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.117216666666667</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.117216666666667</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>0.25</v>
+        <v>0.35165</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.117216666666667</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.117216666666667</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.117216666666667</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>0.25</v>
+        <v>0.35165</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>1</v>
+        <v>1.4066</v>
       </c>
     </row>
   </sheetData>
@@ -9027,9 +9027,7 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="23" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="23"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -9090,9 +9088,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="23" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="23"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -9945,7 +9941,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="26" t="n">
-        <v>0</v>
+        <v>0.0966</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10016,7 +10012,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="26" t="n">
-        <v>0</v>
+        <v>0.0966</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10087,7 +10083,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="26" t="n">
-        <v>0</v>
+        <v>0.0966</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10111,37 +10107,37 @@
         <v>0.0513</v>
       </c>
       <c r="M4" s="26" t="n">
-        <v>0</v>
+        <v>0.0193166666666667</v>
       </c>
       <c r="N4" s="26" t="n">
-        <v>0</v>
+        <v>0.05795</v>
       </c>
       <c r="O4" s="26" t="n">
-        <v>0</v>
+        <v>0.0193166666666667</v>
       </c>
       <c r="P4" s="26" t="n">
-        <v>0</v>
+        <v>0.0193166666666667</v>
       </c>
       <c r="Q4" s="26" t="n">
-        <v>0</v>
+        <v>0.0193166666666667</v>
       </c>
       <c r="R4" s="26" t="n">
-        <v>0</v>
+        <v>0.05795</v>
       </c>
       <c r="S4" s="26" t="n">
-        <v>0</v>
+        <v>0.0193166666666667</v>
       </c>
       <c r="T4" s="26" t="n">
-        <v>0</v>
+        <v>0.0193166666666667</v>
       </c>
       <c r="U4" s="26" t="n">
-        <v>0</v>
+        <v>0.0193166666666667</v>
       </c>
       <c r="V4" s="26" t="n">
-        <v>0</v>
+        <v>0.05795</v>
       </c>
       <c r="W4" s="26" t="n">
-        <v>0</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="5">
@@ -11086,7 +11082,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11157,7 +11153,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11228,7 +11224,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11252,37 +11248,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>1</v>
+        <v>1.7143</v>
       </c>
     </row>
     <row r="5">
@@ -11409,7 +11405,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -11480,7 +11476,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -11551,7 +11547,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -11706,9 +11702,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="30" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="30"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11759,9 +11753,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="30" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -11897,9 +11889,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="31" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="31"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11960,9 +11950,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="31" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="31"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -12705,7 +12693,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12776,7 +12764,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12847,7 +12835,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12871,37 +12859,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.0888</v>
       </c>
     </row>
     <row r="5">
@@ -13101,7 +13089,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13172,7 +13160,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13243,7 +13231,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13399,7 +13387,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.0851</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13470,7 +13458,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.0851</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13541,7 +13529,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.0851</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13565,37 +13553,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0</v>
+        <v>0.0170166666666667</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0</v>
+        <v>0.05105</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.0170166666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0</v>
+        <v>0.0170166666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0</v>
+        <v>0.0170166666666667</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0</v>
+        <v>0.05105</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0</v>
+        <v>0.0170166666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0</v>
+        <v>0.0170166666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>0.0170166666666667</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>0.05105</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>0.2042</v>
       </c>
     </row>
     <row r="5">
@@ -13792,9 +13780,7 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E8" s="7"/>
       <c r="F8" t="s">
         <v>27</v>
       </c>
@@ -13841,9 +13827,7 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" t="s">
         <v>28</v>
       </c>
@@ -13976,7 +13960,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14047,7 +14031,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -14118,7 +14102,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14142,37 +14126,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0</v>
+        <v>0.0366</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0</v>
+        <v>0.0366</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0</v>
+        <v>0.0366</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>0.1464</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
@@ -712,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.1754</v>
+        <v>0.177</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -783,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.1754</v>
+        <v>0.177</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -854,7 +854,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.1754</v>
+        <v>0.177</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -878,37 +878,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0350833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.10525</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0350833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0350833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0350833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.10525</v>
+        <v>0.0885</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0350833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0350833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0350833333333333</v>
+        <v>0.0295</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.10525</v>
+        <v>0.0885</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.421</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="5">
@@ -1100,7 +1100,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0318</v>
+        <v>0.0315</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1171,7 +1171,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0318</v>
+        <v>0.0315</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1242,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0318</v>
+        <v>0.0315</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0106</v>
+        <v>0.0105</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0217</v>
+        <v>0.0215</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.0322</v>
+        <v>0.0318</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>0</v>
@@ -1266,37 +1266,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.00635833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.019075</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.00635833333333333</v>
+        <v>0.00525</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.00635833333333333</v>
+        <v>0.00525</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.00635833333333333</v>
+        <v>0.00525</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.019075</v>
+        <v>0.01575</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.00635833333333333</v>
+        <v>0.00525</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.00635833333333333</v>
+        <v>0.00525</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.00635833333333333</v>
+        <v>0.00525</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.019075</v>
+        <v>0.01575</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.0763</v>
+        <v>0.063</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1398,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.0598</v>
+        <v>0.0588</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1469,7 +1469,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.0598</v>
+        <v>0.0588</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1540,61 +1540,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.0598</v>
+        <v>0.0588</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="10" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="L4" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="H4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="K4" s="10" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L4" s="10" t="n">
-        <v>0.0204</v>
-      </c>
       <c r="M4" s="10" t="n">
-        <v>0.0119583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.035875</v>
+        <v>0.0398</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0119583333333333</v>
+        <v>0.0098</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0119583333333333</v>
+        <v>0.0098</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0119583333333333</v>
+        <v>0.0098</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.035875</v>
+        <v>0.0294</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0119583333333333</v>
+        <v>0.0098</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0119583333333333</v>
+        <v>0.0098</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0119583333333333</v>
+        <v>0.0098</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.035875</v>
+        <v>0.0294</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0.1435</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="5">
@@ -1611,7 +1611,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1658,7 +1658,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1729,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1745,37 +1745,37 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1792,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.053</v>
+        <v>0.0758</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1863,7 +1863,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.053</v>
+        <v>0.0758</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1934,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.053</v>
+        <v>0.0758</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1955,40 +1955,40 @@
         <v>0.0067</v>
       </c>
       <c r="L10" s="10" t="n">
-        <v>0.0082</v>
+        <v>0.0081</v>
       </c>
       <c r="M10" s="10" t="n">
-        <v>0.0106</v>
+        <v>0.0233</v>
       </c>
       <c r="N10" s="10" t="n">
-        <v>0.0318</v>
+        <v>0.0379</v>
       </c>
       <c r="O10" s="10" t="n">
-        <v>0.0106</v>
+        <v>0.0126333333333333</v>
       </c>
       <c r="P10" s="10" t="n">
-        <v>0.0106</v>
+        <v>0.0126333333333333</v>
       </c>
       <c r="Q10" s="10" t="n">
-        <v>0.0106</v>
+        <v>0.0126333333333333</v>
       </c>
       <c r="R10" s="10" t="n">
-        <v>0.0318</v>
+        <v>0.0379</v>
       </c>
       <c r="S10" s="10" t="n">
-        <v>0.0106</v>
+        <v>0.0126333333333333</v>
       </c>
       <c r="T10" s="10" t="n">
-        <v>0.0106</v>
+        <v>0.0126333333333333</v>
       </c>
       <c r="U10" s="10" t="n">
-        <v>0.0106</v>
+        <v>0.0126333333333333</v>
       </c>
       <c r="V10" s="10" t="n">
-        <v>0.0318</v>
+        <v>0.0379</v>
       </c>
       <c r="W10" s="10" t="n">
-        <v>0.1272</v>
+        <v>0.1516</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +2090,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.0403</v>
+        <v>0.0405</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2161,7 +2161,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.0403</v>
+        <v>0.0405</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2232,7 +2232,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.0403</v>
+        <v>0.0405</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2256,37 +2256,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.00805833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.024175</v>
+        <v>0</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.00805833333333333</v>
+        <v>0.00675</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.00805833333333333</v>
+        <v>0.00675</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.00805833333333333</v>
+        <v>0.00675</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.024175</v>
+        <v>0.02025</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.00805833333333333</v>
+        <v>0.00675</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.00805833333333333</v>
+        <v>0.00675</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.00805833333333333</v>
+        <v>0.00675</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.024175</v>
+        <v>0.02025</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.0967</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="5">
@@ -2417,7 +2417,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0502</v>
+        <v>0.0596</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2488,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0502</v>
+        <v>0.0596</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2559,7 +2559,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0502</v>
+        <v>0.0596</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2583,37 +2583,37 @@
         <v>0.0094</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>0.0100416666666667</v>
+        <v>0.0094</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>0.030125</v>
+        <v>0.0389</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0.0100416666666667</v>
+        <v>0.00993333333333333</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0.0100416666666667</v>
+        <v>0.00993333333333333</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0.0100416666666667</v>
+        <v>0.00993333333333333</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0.030125</v>
+        <v>0.0298</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0.0100416666666667</v>
+        <v>0.00993333333333333</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0.0100416666666667</v>
+        <v>0.00993333333333333</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0.0100416666666667</v>
+        <v>0.00993333333333333</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0.030125</v>
+        <v>0.0298</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>0.1205</v>
+        <v>0.1192</v>
       </c>
     </row>
   </sheetData>
@@ -2943,12 +2943,8 @@
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="12" t="n">
         <v>1</v>
       </c>
@@ -3697,7 +3693,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0347</v>
+        <v>0.1017</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3768,7 +3764,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0347</v>
+        <v>0.1017</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3839,23 +3835,23 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0347</v>
+        <v>0.1017</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="14" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="n">
         <v>0.0333</v>
       </c>
-      <c r="H4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14" t="n">
-        <v>0.0345</v>
-      </c>
       <c r="K4" s="14" t="n">
         <v>0</v>
       </c>
@@ -3863,37 +3859,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0.00694166666666667</v>
+        <v>0.0714</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0.020825</v>
+        <v>0.069</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.00694166666666667</v>
+        <v>0.01695</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.00694166666666667</v>
+        <v>0.01695</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.00694166666666667</v>
+        <v>0.01695</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.020825</v>
+        <v>0.05085</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.00694166666666667</v>
+        <v>0.01695</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.00694166666666667</v>
+        <v>0.01695</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.00694166666666667</v>
+        <v>0.01695</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.020825</v>
+        <v>0.05085</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.0833</v>
+        <v>0.2034</v>
       </c>
     </row>
     <row r="5">
@@ -3910,7 +3906,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3953,7 +3949,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -4024,7 +4020,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -4042,37 +4038,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W7" s="14" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -4089,7 +4085,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0551</v>
+        <v>0.0707</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4160,7 +4156,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0551</v>
+        <v>0.0707</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4231,7 +4227,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0551</v>
+        <v>0.0707</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4252,40 +4248,40 @@
         <v>0.0104</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0.0157</v>
+        <v>0.0156</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0.0110166666666667</v>
+        <v>0.0156</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0.03305</v>
+        <v>0.0416</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.0110166666666667</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.0110166666666667</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.0110166666666667</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.03305</v>
+        <v>0.03535</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.0110166666666667</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.0110166666666667</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.0110166666666667</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.03305</v>
+        <v>0.03535</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.1322</v>
+        <v>0.1414</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +4383,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0325</v>
+        <v>0.0337</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4458,7 +4454,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0325</v>
+        <v>0.0337</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4529,7 +4525,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0325</v>
+        <v>0.0337</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4550,40 +4546,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.0333</v>
+        <v>0.0345</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.0065</v>
+        <v>0</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0.0195</v>
+        <v>0.0341</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.0065</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.0065</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0065</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.0195</v>
+        <v>0.01685</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0065</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0065</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0065</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.0195</v>
+        <v>0.01685</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.078</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="5">
@@ -4710,7 +4706,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.1236</v>
+        <v>0.1484</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4781,7 +4777,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.1236</v>
+        <v>0.1484</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4852,7 +4848,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.1236</v>
+        <v>0.1484</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4876,37 +4872,37 @@
         <v>0.0264</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.0247166666666667</v>
+        <v>0.0248</v>
       </c>
       <c r="N9" s="15" t="n">
-        <v>0.07415</v>
+        <v>0.0713</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>0.0247166666666667</v>
+        <v>0.0247333333333333</v>
       </c>
       <c r="P9" s="15" t="n">
-        <v>0.0247166666666667</v>
+        <v>0.0247333333333333</v>
       </c>
       <c r="Q9" s="15" t="n">
-        <v>0.0247166666666667</v>
+        <v>0.0247333333333333</v>
       </c>
       <c r="R9" s="15" t="n">
-        <v>0.07415</v>
+        <v>0.0742</v>
       </c>
       <c r="S9" s="15" t="n">
-        <v>0.0247166666666667</v>
+        <v>0.0247333333333333</v>
       </c>
       <c r="T9" s="15" t="n">
-        <v>0.0247166666666667</v>
+        <v>0.0247333333333333</v>
       </c>
       <c r="U9" s="15" t="n">
-        <v>0.0247166666666667</v>
+        <v>0.0247333333333333</v>
       </c>
       <c r="V9" s="15" t="n">
-        <v>0.07415</v>
+        <v>0.0742</v>
       </c>
       <c r="W9" s="15" t="n">
-        <v>0.2966</v>
+        <v>0.2968</v>
       </c>
     </row>
   </sheetData>
@@ -5604,7 +5600,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0.0568</v>
+        <v>0.0513</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5675,7 +5671,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0.0568</v>
+        <v>0.0513</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5746,7 +5742,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0.0568</v>
+        <v>0.0513</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5767,40 +5763,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0.0588</v>
+        <v>0.0526</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0.0113583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0.034075</v>
+        <v>0.0518</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00855</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00855</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00855</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.034075</v>
+        <v>0.02565</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00855</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00855</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.0113583333333333</v>
+        <v>0.00855</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.034075</v>
+        <v>0.02565</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0.1363</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="5">
@@ -5817,7 +5813,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5872,7 +5868,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5943,7 +5939,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5961,37 +5957,37 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="O7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -6008,7 +6004,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0275</v>
+        <v>0.0363</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6079,7 +6075,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.0275</v>
+        <v>0.0363</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6150,7 +6146,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.0275</v>
+        <v>0.0363</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -6174,37 +6170,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>0.0055</v>
+        <v>0.0085</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>0.0165</v>
+        <v>0.0177</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>0.0055</v>
+        <v>0.00605</v>
       </c>
       <c r="P10" s="18" t="n">
-        <v>0.0055</v>
+        <v>0.00605</v>
       </c>
       <c r="Q10" s="18" t="n">
-        <v>0.0055</v>
+        <v>0.00605</v>
       </c>
       <c r="R10" s="18" t="n">
-        <v>0.0165</v>
+        <v>0.01815</v>
       </c>
       <c r="S10" s="18" t="n">
-        <v>0.0055</v>
+        <v>0.00605</v>
       </c>
       <c r="T10" s="18" t="n">
-        <v>0.0055</v>
+        <v>0.00605</v>
       </c>
       <c r="U10" s="18" t="n">
-        <v>0.0055</v>
+        <v>0.00605</v>
       </c>
       <c r="V10" s="18" t="n">
-        <v>0.0165</v>
+        <v>0.01815</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>0.066</v>
+        <v>0.0726</v>
       </c>
     </row>
   </sheetData>
@@ -6604,7 +6600,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0769</v>
+        <v>0.0833</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6675,7 +6671,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.0769</v>
+        <v>0.0833</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6746,13 +6742,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0769</v>
+        <v>0.0833</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.0769</v>
+        <v>0.0833</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0</v>
@@ -6761,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0769</v>
+        <v>0.0833</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -6770,37 +6766,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.0153833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.04615</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.04615</v>
+        <v>0.04165</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0153833333333333</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.04615</v>
+        <v>0.04165</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.1846</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="5">
@@ -6983,37 +6979,37 @@
         <v>0.0159</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.00938333333333333</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.02815</v>
+        <v>0.0157</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.00938333333333333</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.00938333333333333</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.00938333333333333</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.02815</v>
+        <v>0.02345</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.00938333333333333</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.00938333333333333</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.00938333333333333</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.02815</v>
+        <v>0.02345</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.1126</v>
+        <v>0.0938</v>
       </c>
     </row>
   </sheetData>
@@ -7413,7 +7409,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0.0164</v>
+        <v>0.0163</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7484,7 +7480,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0.0164</v>
+        <v>0.0163</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7555,7 +7551,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.0164</v>
+        <v>0.0163</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7579,37 +7575,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0.00328333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0.00985</v>
+        <v>0</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.00328333333333333</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.00328333333333333</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.00328333333333333</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.00985</v>
+        <v>0.00815</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.00328333333333333</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.00328333333333333</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.00328333333333333</v>
+        <v>0.00271666666666667</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.00985</v>
+        <v>0.00815</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0.0394</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="5">
@@ -7829,7 +7825,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>0.1111</v>
+        <v>0.1414</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7900,7 +7896,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>0.1111</v>
+        <v>0.1414</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7971,61 +7967,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>0.1111</v>
+        <v>0.1414</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="21" t="n">
-        <v>0.0201</v>
+        <v>0.02</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>0.0197</v>
+        <v>0.0192</v>
       </c>
       <c r="I10" s="21" t="n">
-        <v>0.0221</v>
+        <v>0.0216</v>
       </c>
       <c r="J10" s="21" t="n">
-        <v>0.0619</v>
+        <v>0.0608</v>
       </c>
       <c r="K10" s="21" t="n">
-        <v>0.0277</v>
+        <v>0.0276</v>
       </c>
       <c r="L10" s="21" t="n">
-        <v>0.0214</v>
+        <v>0.0213</v>
       </c>
       <c r="M10" s="21" t="n">
-        <v>0.0222166666666667</v>
+        <v>0.0326</v>
       </c>
       <c r="N10" s="21" t="n">
-        <v>0.06665</v>
+        <v>0.0811</v>
       </c>
       <c r="O10" s="21" t="n">
-        <v>0.0222166666666667</v>
+        <v>0.0235666666666667</v>
       </c>
       <c r="P10" s="21" t="n">
-        <v>0.0222166666666667</v>
+        <v>0.0235666666666667</v>
       </c>
       <c r="Q10" s="21" t="n">
-        <v>0.0222166666666667</v>
+        <v>0.0235666666666667</v>
       </c>
       <c r="R10" s="21" t="n">
-        <v>0.06665</v>
+        <v>0.0707</v>
       </c>
       <c r="S10" s="21" t="n">
-        <v>0.0222166666666667</v>
+        <v>0.0235666666666667</v>
       </c>
       <c r="T10" s="21" t="n">
-        <v>0.0222166666666667</v>
+        <v>0.0235666666666667</v>
       </c>
       <c r="U10" s="21" t="n">
-        <v>0.0222166666666667</v>
+        <v>0.0235666666666667</v>
       </c>
       <c r="V10" s="21" t="n">
-        <v>0.06665</v>
+        <v>0.0707</v>
       </c>
       <c r="W10" s="21" t="n">
-        <v>0.2666</v>
+        <v>0.2828</v>
       </c>
     </row>
   </sheetData>
@@ -8127,7 +8123,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0.1351</v>
+        <v>0.1333</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8198,7 +8194,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0.1351</v>
+        <v>0.1333</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8269,7 +8265,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0.1351</v>
+        <v>0.1333</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8293,37 +8289,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="22" t="n">
-        <v>0.0270166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="22" t="n">
-        <v>0.08105</v>
+        <v>0</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0.08105</v>
+        <v>0.06665</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0.0270166666666667</v>
+        <v>0.0222166666666667</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0.08105</v>
+        <v>0.06665</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>0.3242</v>
+        <v>0.2666</v>
       </c>
     </row>
     <row r="5">
@@ -8469,9 +8465,7 @@
         <v>0.5</v>
       </c>
       <c r="L7" s="22"/>
-      <c r="M7" s="22" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M7" s="22"/>
       <c r="N7" s="22" t="n">
         <v>0.5</v>
       </c>
@@ -8517,7 +8511,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>0.5861</v>
+        <v>0.6066</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8588,7 +8582,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>0.5861</v>
+        <v>0.6066</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8659,61 +8653,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>0.5861</v>
+        <v>0.6066</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>0.1096</v>
+        <v>0.1013</v>
       </c>
       <c r="H10" s="22" t="n">
-        <v>0.1935</v>
+        <v>0.1838</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>0.1081</v>
+        <v>0.0976</v>
       </c>
       <c r="J10" s="22" t="n">
-        <v>0.4094</v>
+        <v>0.3813</v>
       </c>
       <c r="K10" s="22" t="n">
-        <v>0.0909</v>
+        <v>0.08</v>
       </c>
       <c r="L10" s="22" t="n">
-        <v>0.0638</v>
+        <v>0.0667</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>0.117216666666667</v>
+        <v>0.0545</v>
       </c>
       <c r="N10" s="22" t="n">
-        <v>0.35165</v>
+        <v>0.2</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>0.117216666666667</v>
+        <v>0.1011</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>0.117216666666667</v>
+        <v>0.1011</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>0.117216666666667</v>
+        <v>0.1011</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>0.35165</v>
+        <v>0.3033</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>0.117216666666667</v>
+        <v>0.1011</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>0.117216666666667</v>
+        <v>0.1011</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>0.117216666666667</v>
+        <v>0.1011</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>0.35165</v>
+        <v>0.3033</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>1.4066</v>
+        <v>1.2132</v>
       </c>
     </row>
   </sheetData>
@@ -9234,9 +9228,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="24"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -9305,9 +9297,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="24"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -9360,77 +9350,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9941,7 +9860,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="26" t="n">
-        <v>0.0966</v>
+        <v>0.0976</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10012,7 +9931,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="26" t="n">
-        <v>0.0966</v>
+        <v>0.0976</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10083,7 +10002,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="26" t="n">
-        <v>0.0966</v>
+        <v>0.0976</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10107,37 +10026,37 @@
         <v>0.0513</v>
       </c>
       <c r="M4" s="26" t="n">
-        <v>0.0193166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="26" t="n">
-        <v>0.05795</v>
+        <v>0.0756</v>
       </c>
       <c r="O4" s="26" t="n">
-        <v>0.0193166666666667</v>
+        <v>0.0162666666666667</v>
       </c>
       <c r="P4" s="26" t="n">
-        <v>0.0193166666666667</v>
+        <v>0.0162666666666667</v>
       </c>
       <c r="Q4" s="26" t="n">
-        <v>0.0193166666666667</v>
+        <v>0.0162666666666667</v>
       </c>
       <c r="R4" s="26" t="n">
-        <v>0.05795</v>
+        <v>0.0488</v>
       </c>
       <c r="S4" s="26" t="n">
-        <v>0.0193166666666667</v>
+        <v>0.0162666666666667</v>
       </c>
       <c r="T4" s="26" t="n">
-        <v>0.0193166666666667</v>
+        <v>0.0162666666666667</v>
       </c>
       <c r="U4" s="26" t="n">
-        <v>0.0193166666666667</v>
+        <v>0.0162666666666667</v>
       </c>
       <c r="V4" s="26" t="n">
-        <v>0.05795</v>
+        <v>0.0488</v>
       </c>
       <c r="W4" s="26" t="n">
-        <v>0.2318</v>
+        <v>0.1952</v>
       </c>
     </row>
     <row r="5">
@@ -11082,7 +11001,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11153,7 +11072,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11224,7 +11143,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11248,37 +11167,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.142858333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.428575</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>1.7143</v>
+        <v>1.5384</v>
       </c>
     </row>
     <row r="5">
@@ -12693,7 +12612,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.037</v>
+        <v>0.0493</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12764,7 +12683,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.037</v>
+        <v>0.0493</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12835,7 +12754,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.037</v>
+        <v>0.0493</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12853,43 +12772,43 @@
         <v>0.0374</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0074</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0222</v>
+        <v>0.0122</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0074</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0074</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0074</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.0222</v>
+        <v>0.02465</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0074</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0074</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0074</v>
+        <v>0.00821666666666667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0222</v>
+        <v>0.02465</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0888</v>
+        <v>0.0986</v>
       </c>
     </row>
     <row r="5">
@@ -13041,9 +12960,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="6" t="n">
         <v>0</v>
       </c>
@@ -13387,7 +13304,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0851</v>
+        <v>0.0837</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13458,7 +13375,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.0851</v>
+        <v>0.0837</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13529,22 +13446,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0851</v>
+        <v>0.0837</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>0.0204</v>
+        <v>0.02</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0.0417</v>
+        <v>0.0408</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.0217</v>
+        <v>0.0213</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0839</v>
+        <v>0.0821</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
@@ -13553,37 +13470,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0170166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.05105</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0170166666666667</v>
+        <v>0.01395</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0170166666666667</v>
+        <v>0.01395</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0170166666666667</v>
+        <v>0.01395</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.05105</v>
+        <v>0.04185</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0170166666666667</v>
+        <v>0.01395</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0170166666666667</v>
+        <v>0.01395</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0170166666666667</v>
+        <v>0.01395</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.05105</v>
+        <v>0.04185</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.2042</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="5">
@@ -13733,12 +13650,8 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="n">
         <v>1</v>
       </c>
@@ -13960,7 +13873,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.061</v>
+        <v>0.0613</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14031,7 +13944,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.061</v>
+        <v>0.0613</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -14102,7 +14015,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.061</v>
+        <v>0.0613</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14126,37 +14039,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.0122</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.0366</v>
+        <v>0</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0122</v>
+        <v>0.0102166666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0122</v>
+        <v>0.0102166666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0122</v>
+        <v>0.0102166666666667</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.0366</v>
+        <v>0.03065</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0122</v>
+        <v>0.0102166666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0122</v>
+        <v>0.0102166666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0122</v>
+        <v>0.0102166666666667</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.0366</v>
+        <v>0.03065</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.1464</v>
+        <v>0.1226</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors and Drives.xlsx
@@ -884,31 +884,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.0885</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.0885</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -925,7 +925,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -968,7 +968,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1039,7 +1039,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1059,31 +1059,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -1100,7 +1100,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0315</v>
+        <v>0.0306</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1171,7 +1171,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0315</v>
+        <v>0.0306</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1242,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0315</v>
+        <v>0.0306</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0105</v>
+        <v>0.0102</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0215</v>
+        <v>0.0208</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.0318</v>
+        <v>0.0308</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>0</v>
@@ -1272,31 +1272,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.00525</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.00525</v>
+        <v>0.004375</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.00525</v>
+        <v>0.004375</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.01575</v>
+        <v>0.013125</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.00525</v>
+        <v>0.004375</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.00525</v>
+        <v>0.004375</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.00525</v>
+        <v>0.004375</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.01575</v>
+        <v>0.013125</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.063</v>
+        <v>0.0525</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1398,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.0588</v>
+        <v>0.0589</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1469,7 +1469,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.0588</v>
+        <v>0.0589</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1540,7 +1540,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.0588</v>
+        <v>0.0589</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1570,31 +1570,31 @@
         <v>0.0398</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0098</v>
+        <v>0</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0098</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0098</v>
+        <v>0</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0098</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0098</v>
+        <v>0</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0098</v>
+        <v>0</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1611,7 +1611,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1658,7 +1658,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1729,7 +1729,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1751,31 +1751,31 @@
         <v>1</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1792,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0758</v>
+        <v>0.0967</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1863,7 +1863,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0758</v>
+        <v>0.0967</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1934,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.0758</v>
+        <v>0.0967</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1964,31 +1964,31 @@
         <v>0.0379</v>
       </c>
       <c r="O10" s="10" t="n">
-        <v>0.0126333333333333</v>
+        <v>0.0215</v>
       </c>
       <c r="P10" s="10" t="n">
-        <v>0.0126333333333333</v>
+        <v>0.0138166666666667</v>
       </c>
       <c r="Q10" s="10" t="n">
-        <v>0.0126333333333333</v>
+        <v>0.0138166666666667</v>
       </c>
       <c r="R10" s="10" t="n">
-        <v>0.0379</v>
+        <v>0.04145</v>
       </c>
       <c r="S10" s="10" t="n">
-        <v>0.0126333333333333</v>
+        <v>0.0138166666666667</v>
       </c>
       <c r="T10" s="10" t="n">
-        <v>0.0126333333333333</v>
+        <v>0.0138166666666667</v>
       </c>
       <c r="U10" s="10" t="n">
-        <v>0.0126333333333333</v>
+        <v>0.0138166666666667</v>
       </c>
       <c r="V10" s="10" t="n">
-        <v>0.0379</v>
+        <v>0.04145</v>
       </c>
       <c r="W10" s="10" t="n">
-        <v>0.1516</v>
+        <v>0.1658</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +2090,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.0405</v>
+        <v>0.0837</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2161,7 +2161,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.0405</v>
+        <v>0.0837</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2232,7 +2232,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.0405</v>
+        <v>0.0837</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.0405</v>
+        <v>0.0412</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>0</v>
@@ -2262,31 +2262,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.00675</v>
+        <v>0.0455</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.00675</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.00675</v>
+        <v>0</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.02025</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.00675</v>
+        <v>0</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.00675</v>
+        <v>0</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.00675</v>
+        <v>0</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.02025</v>
+        <v>0</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2417,7 +2417,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0596</v>
+        <v>0.0786</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2488,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0596</v>
+        <v>0.0786</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2559,7 +2559,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0596</v>
+        <v>0.0786</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2589,31 +2589,31 @@
         <v>0.0389</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0.00993333333333333</v>
+        <v>0.0196</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0.00993333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0.00993333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0.0298</v>
+        <v>0.033675</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0.00993333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0.00993333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0.00993333333333333</v>
+        <v>0.011225</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0.0298</v>
+        <v>0.033675</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>0.1192</v>
+        <v>0.1347</v>
       </c>
     </row>
   </sheetData>
@@ -2945,9 +2945,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="12"/>
       <c r="P5" s="12" t="n">
         <v>1</v>
       </c>
@@ -3497,7 +3495,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3538,7 +3538,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3592,6 +3594,61 @@
       </c>
       <c r="W6" s="13" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3693,7 +3750,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.1017</v>
+        <v>0.1024</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3764,7 +3821,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.1017</v>
+        <v>0.1024</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3835,7 +3892,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.1017</v>
+        <v>0.1024</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3865,31 +3922,31 @@
         <v>0.069</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.05085</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.01695</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.05085</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.2034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4043,9 +4100,7 @@
       <c r="N7" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="14" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="O7" s="14"/>
       <c r="P7" s="14" t="n">
         <v>0.333333333333333</v>
       </c>
@@ -4085,7 +4140,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0707</v>
+        <v>0.0757</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4156,7 +4211,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0707</v>
+        <v>0.0757</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4227,7 +4282,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0707</v>
+        <v>0.0757</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4257,31 +4312,31 @@
         <v>0.0416</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0051</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.03535</v>
+        <v>0.03245</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.03535</v>
+        <v>0.03245</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.1414</v>
+        <v>0.1298</v>
       </c>
     </row>
   </sheetData>
@@ -4383,7 +4438,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0337</v>
+        <v>0.0338</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4454,7 +4509,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0337</v>
+        <v>0.0338</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4525,7 +4580,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0337</v>
+        <v>0.0338</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4555,31 +4610,31 @@
         <v>0.0341</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.0674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4706,7 +4761,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.1484</v>
+        <v>0.1802</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4777,7 +4832,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.1484</v>
+        <v>0.1802</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4848,7 +4903,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.1484</v>
+        <v>0.1802</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4878,31 +4933,31 @@
         <v>0.0713</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>0.0247333333333333</v>
+        <v>0.0321</v>
       </c>
       <c r="P9" s="15" t="n">
-        <v>0.0247333333333333</v>
+        <v>0.0257416666666667</v>
       </c>
       <c r="Q9" s="15" t="n">
-        <v>0.0247333333333333</v>
+        <v>0.0257416666666667</v>
       </c>
       <c r="R9" s="15" t="n">
-        <v>0.0742</v>
+        <v>0.077225</v>
       </c>
       <c r="S9" s="15" t="n">
-        <v>0.0247333333333333</v>
+        <v>0.0257416666666667</v>
       </c>
       <c r="T9" s="15" t="n">
-        <v>0.0247333333333333</v>
+        <v>0.0257416666666667</v>
       </c>
       <c r="U9" s="15" t="n">
-        <v>0.0247333333333333</v>
+        <v>0.0257416666666667</v>
       </c>
       <c r="V9" s="15" t="n">
-        <v>0.0742</v>
+        <v>0.077225</v>
       </c>
       <c r="W9" s="15" t="n">
-        <v>0.2968</v>
+        <v>0.3089</v>
       </c>
     </row>
   </sheetData>
@@ -5600,7 +5655,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0.0513</v>
+        <v>0.0493</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5671,7 +5726,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0.0513</v>
+        <v>0.0493</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5742,7 +5797,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0.0513</v>
+        <v>0.0493</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5763,40 +5818,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0.0526</v>
+        <v>0.05</v>
       </c>
       <c r="M4" s="18" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0.0518</v>
+        <v>0.0493</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.02565</v>
+        <v>0</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.00855</v>
+        <v>0</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.02565</v>
+        <v>0</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0.1026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5813,7 +5868,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5868,7 +5923,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5939,7 +5994,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5963,31 +6018,31 @@
         <v>1</v>
       </c>
       <c r="O7" s="18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R7" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S7" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="T7" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="U7" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="V7" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W7" s="18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -6158,49 +6213,49 @@
         <v>0</v>
       </c>
       <c r="I10" s="18" t="n">
-        <v>0.0177</v>
+        <v>0.0179</v>
       </c>
       <c r="J10" s="18" t="n">
-        <v>0.0186</v>
+        <v>0.0187</v>
       </c>
       <c r="K10" s="18" t="n">
-        <v>0.0089</v>
+        <v>0.009</v>
       </c>
       <c r="L10" s="18" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="18" t="n">
-        <v>0.0085</v>
+        <v>0.0086</v>
       </c>
       <c r="N10" s="18" t="n">
-        <v>0.0177</v>
+        <v>0.0179</v>
       </c>
       <c r="O10" s="18" t="n">
-        <v>0.00605</v>
+        <v>0</v>
       </c>
       <c r="P10" s="18" t="n">
-        <v>0.00605</v>
+        <v>0.00518333333333333</v>
       </c>
       <c r="Q10" s="18" t="n">
-        <v>0.00605</v>
+        <v>0.00518333333333333</v>
       </c>
       <c r="R10" s="18" t="n">
-        <v>0.01815</v>
+        <v>0.01555</v>
       </c>
       <c r="S10" s="18" t="n">
-        <v>0.00605</v>
+        <v>0.00518333333333333</v>
       </c>
       <c r="T10" s="18" t="n">
-        <v>0.00605</v>
+        <v>0.00518333333333333</v>
       </c>
       <c r="U10" s="18" t="n">
-        <v>0.00605</v>
+        <v>0.00518333333333333</v>
       </c>
       <c r="V10" s="18" t="n">
-        <v>0.01815</v>
+        <v>0.01555</v>
       </c>
       <c r="W10" s="18" t="n">
-        <v>0.0726</v>
+        <v>0.0622</v>
       </c>
     </row>
   </sheetData>
@@ -6772,31 +6827,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.04165</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.04165</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.1666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6813,7 +6868,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0469</v>
+        <v>0.0467</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6884,7 +6939,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.0469</v>
+        <v>0.0467</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6955,7 +7010,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0469</v>
+        <v>0.0467</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6985,31 +7040,31 @@
         <v>0.0157</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.00781666666666667</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.006675</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.006675</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.02345</v>
+        <v>0.020025</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.006675</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.006675</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.006675</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.02345</v>
+        <v>0.020025</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.0938</v>
+        <v>0.0801</v>
       </c>
     </row>
   </sheetData>
@@ -7409,7 +7464,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0.0163</v>
+        <v>0.0161</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7480,7 +7535,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0.0163</v>
+        <v>0.0161</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7551,7 +7606,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.0163</v>
+        <v>0.0161</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7581,31 +7636,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.00271666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.00271666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.00271666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.00815</v>
+        <v>0</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.00271666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.00271666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.00271666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.00815</v>
+        <v>0</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0.0326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7825,7 +7880,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>0.1414</v>
+        <v>0.1742</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7896,7 +7951,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>0.1414</v>
+        <v>0.1742</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7967,13 +8022,13 @@
         <v>31</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>0.1414</v>
+        <v>0.1742</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="21" t="n">
-        <v>0.02</v>
+        <v>0.0195</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>0.0192</v>
@@ -7982,7 +8037,7 @@
         <v>0.0216</v>
       </c>
       <c r="J10" s="21" t="n">
-        <v>0.0608</v>
+        <v>0.0604</v>
       </c>
       <c r="K10" s="21" t="n">
         <v>0.0276</v>
@@ -7991,37 +8046,37 @@
         <v>0.0213</v>
       </c>
       <c r="M10" s="21" t="n">
-        <v>0.0326</v>
+        <v>0.0363</v>
       </c>
       <c r="N10" s="21" t="n">
-        <v>0.0811</v>
+        <v>0.0845</v>
       </c>
       <c r="O10" s="21" t="n">
-        <v>0.0235666666666667</v>
+        <v>0.0307</v>
       </c>
       <c r="P10" s="21" t="n">
-        <v>0.0235666666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="Q10" s="21" t="n">
-        <v>0.0235666666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="R10" s="21" t="n">
-        <v>0.0707</v>
+        <v>0.07465</v>
       </c>
       <c r="S10" s="21" t="n">
-        <v>0.0235666666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="T10" s="21" t="n">
-        <v>0.0235666666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="U10" s="21" t="n">
-        <v>0.0235666666666667</v>
+        <v>0.0248833333333333</v>
       </c>
       <c r="V10" s="21" t="n">
-        <v>0.0707</v>
+        <v>0.07465</v>
       </c>
       <c r="W10" s="21" t="n">
-        <v>0.2828</v>
+        <v>0.2986</v>
       </c>
     </row>
   </sheetData>
@@ -8123,7 +8178,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0.1333</v>
+        <v>0.1316</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8194,7 +8249,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0.1333</v>
+        <v>0.1316</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8265,7 +8320,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0.1333</v>
+        <v>0.1316</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8295,31 +8350,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0.06665</v>
+        <v>0</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0.0222166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0.06665</v>
+        <v>0</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>0.2666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8469,9 +8524,7 @@
       <c r="N7" s="22" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="22" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O7" s="22"/>
       <c r="P7" s="22" t="n">
         <v>0.5</v>
       </c>
@@ -8511,7 +8564,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>0.6066</v>
+        <v>0.6315</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8582,7 +8635,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>0.6066</v>
+        <v>0.6315</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8653,61 +8706,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>0.6066</v>
+        <v>0.6315</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>0.1013</v>
+        <v>0.0988</v>
       </c>
       <c r="H10" s="22" t="n">
-        <v>0.1838</v>
+        <v>0.1786</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>0.0976</v>
+        <v>0.0945</v>
       </c>
       <c r="J10" s="22" t="n">
-        <v>0.3813</v>
+        <v>0.3706</v>
       </c>
       <c r="K10" s="22" t="n">
-        <v>0.08</v>
+        <v>0.0769</v>
       </c>
       <c r="L10" s="22" t="n">
-        <v>0.0667</v>
+        <v>0.0642</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>0.0545</v>
+        <v>0.0526</v>
       </c>
       <c r="N10" s="22" t="n">
-        <v>0.2</v>
+        <v>0.1927</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>0.1011</v>
+        <v>0.0417</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>0.1011</v>
+        <v>0.0902166666666667</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>0.1011</v>
+        <v>0.0902166666666667</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>0.3033</v>
+        <v>0.27065</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>0.1011</v>
+        <v>0.0902166666666667</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>0.1011</v>
+        <v>0.0902166666666667</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>0.1011</v>
+        <v>0.0902166666666667</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>0.3033</v>
+        <v>0.27065</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>1.2132</v>
+        <v>1.0826</v>
       </c>
     </row>
   </sheetData>
@@ -9860,7 +9913,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="26" t="n">
-        <v>0.0976</v>
+        <v>0.1442</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9931,7 +9984,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="26" t="n">
-        <v>0.0976</v>
+        <v>0.1442</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10002,7 +10055,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="26" t="n">
-        <v>0.0976</v>
+        <v>0.1442</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10011,52 +10064,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="26" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="I4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="K4" s="26" t="n">
         <v>0.0238</v>
       </c>
-      <c r="I4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="26" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="K4" s="26" t="n">
-        <v>0.0244</v>
-      </c>
       <c r="L4" s="26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="O4" s="26" t="n">
         <v>0.0513</v>
       </c>
-      <c r="M4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="26" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="O4" s="26" t="n">
-        <v>0.0162666666666667</v>
-      </c>
       <c r="P4" s="26" t="n">
-        <v>0.0162666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="26" t="n">
-        <v>0.0162666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="26" t="n">
-        <v>0.0488</v>
+        <v>0</v>
       </c>
       <c r="S4" s="26" t="n">
-        <v>0.0162666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="26" t="n">
-        <v>0.0162666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="26" t="n">
-        <v>0.0162666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="26" t="n">
-        <v>0.0488</v>
+        <v>0</v>
       </c>
       <c r="W4" s="26" t="n">
-        <v>0.1952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10874,9 +10927,7 @@
       <c r="N3" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="29"/>
       <c r="P3" s="29" t="n">
         <v>0</v>
       </c>
@@ -11173,31 +11224,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.1282</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>1.5384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -12612,7 +12663,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0493</v>
+        <v>0.0485</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12683,7 +12734,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0493</v>
+        <v>0.0485</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12754,7 +12805,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0493</v>
+        <v>0.0485</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12763,16 +12814,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.025</v>
+        <v>0.0247</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0122</v>
+        <v>0.012</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0374</v>
+        <v>0.0369</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>0.0122</v>
+        <v>0.012</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>0</v>
@@ -12781,34 +12832,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0122</v>
+        <v>0.012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.02465</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00821666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02465</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12825,7 +12876,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -12876,7 +12927,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -12947,7 +12998,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -12965,31 +13016,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8">
@@ -13304,7 +13355,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0837</v>
+        <v>0.0839</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13375,7 +13426,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.0837</v>
+        <v>0.0839</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13446,7 +13497,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0837</v>
+        <v>0.0839</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13476,31 +13527,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.04185</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.01395</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.04185</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.1674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13652,9 +13703,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="7"/>
       <c r="P7" s="7" t="n">
         <v>1</v>
       </c>
@@ -13873,7 +13922,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.0613</v>
+        <v>0.1325</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13944,7 +13993,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0613</v>
+        <v>0.1325</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -14015,7 +14064,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0613</v>
+        <v>0.1325</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14024,13 +14073,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>0.0588</v>
+        <v>0.0625</v>
       </c>
       <c r="I4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.0599</v>
+        <v>0.0637</v>
       </c>
       <c r="K4" s="8" t="n">
         <v>0</v>
@@ -14045,31 +14094,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0102166666666667</v>
+        <v>0.0714</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0102166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0102166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.03065</v>
+        <v>0</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0102166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0102166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0102166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.03065</v>
+        <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.1226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
